--- a/Fritzing parts/fritzing.xlsx
+++ b/Fritzing parts/fritzing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="13410"/>
+    <workbookView windowWidth="20910" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>Баззер пассивный</t>
   </si>
   <si>
-    <t>buzzer</t>
+    <t>Buzzer</t>
   </si>
   <si>
     <t>Леды 5 мм цветные</t>
@@ -307,7 +307,7 @@
     <t>PIR мини</t>
   </si>
   <si>
-    <t>PIR sensor</t>
+    <t>PIR AM312</t>
   </si>
   <si>
     <t>ds18b20</t>
@@ -369,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -422,6 +422,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -429,7 +444,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,8 +464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +474,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,13 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -480,11 +496,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,14 +516,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,22 +537,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,6 +549,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -566,187 +566,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,6 +757,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -771,21 +780,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,6 +810,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -840,115 +843,127 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,49 +972,34 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1752,10 +1752,10 @@
         <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>

--- a/Fritzing parts/fritzing.xlsx
+++ b/Fritzing parts/fritzing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20910" windowHeight="14130"/>
+    <workbookView windowWidth="15285" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
   <si>
     <t>Компонент</t>
   </si>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t>SYN480R</t>
+  </si>
+  <si>
+    <t>Радио прдч FS1000A</t>
+  </si>
+  <si>
+    <t>433 TX</t>
+  </si>
+  <si>
+    <t>Радио приёмн RF-5V</t>
+  </si>
+  <si>
+    <t>433 RX</t>
   </si>
   <si>
     <t>MPU6050</t>
@@ -370,11 +382,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,23 +426,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,6 +445,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,23 +477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,9 +501,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,6 +527,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,6 +556,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -549,13 +576,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -566,19 +586,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,151 +754,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,15 +777,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -780,6 +791,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,15 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -843,6 +854,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -860,50 +880,50 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,98 +932,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1033,6 +1053,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1356,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2342,13 +2366,13 @@
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2360,13 +2384,13 @@
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2378,11 +2402,11 @@
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="10" t="s">
+      <c r="A65" t="s">
         <v>115</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
@@ -2395,12 +2419,37 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="1"/>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="12"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="6"/>

--- a/Fritzing parts/fritzing.xlsx
+++ b/Fritzing parts/fritzing.xlsx
@@ -381,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -437,19 +437,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,20 +450,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +464,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,6 +497,22 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -554,24 +563,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,187 +586,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +777,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,35 +827,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,169 +863,163 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/Fritzing parts/fritzing.xlsx
+++ b/Fritzing parts/fritzing.xlsx
@@ -364,13 +364,13 @@
     <t>Радио прдч FS1000A</t>
   </si>
   <si>
-    <t>433 TX</t>
-  </si>
-  <si>
-    <t>Радио приёмн RF-5V</t>
-  </si>
-  <si>
-    <t>433 RX</t>
+    <t>FS1000A</t>
+  </si>
+  <si>
+    <t>Радио приёмн XD-RF-5V</t>
+  </si>
+  <si>
+    <t>XD-RF-5V</t>
   </si>
   <si>
     <t>MPU6050</t>
@@ -381,10 +381,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -442,21 +442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +464,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,22 +513,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,14 +539,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -563,6 +555,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -571,7 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,91 +586,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,91 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,21 +790,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -837,6 +822,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -863,8 +863,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,154 +872,154 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/Fritzing parts/fritzing.xlsx
+++ b/Fritzing parts/fritzing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15285" windowHeight="14130"/>
+    <workbookView windowWidth="18315" windowHeight="13470"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>Компонент</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Чип MAX7219</t>
+  </si>
+  <si>
+    <t>MAX7219 v2</t>
   </si>
   <si>
     <t>MAX7219</t>
@@ -381,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -435,29 +438,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,18 +465,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,9 +497,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,18 +511,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,16 +543,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +564,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -586,109 +589,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,13 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,55 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,21 +780,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -877,149 +865,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1864,11 +1867,11 @@
       <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1878,13 +1881,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1902,7 +1905,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="6"/>
       <c r="E34" s="2"/>
@@ -1912,10 +1915,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>6</v>
@@ -1930,13 +1933,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1948,13 +1951,13 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1966,10 +1969,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>6</v>
@@ -1984,10 +1987,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>6</v>
@@ -2002,10 +2005,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>6</v>
@@ -2020,10 +2023,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
@@ -2034,10 +2037,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
@@ -2056,7 +2059,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44" s="2"/>
@@ -2065,13 +2068,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -2083,16 +2086,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="8"/>
@@ -2101,10 +2104,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>6</v>
@@ -2119,10 +2122,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>6</v>
@@ -2137,10 +2140,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>6</v>
@@ -2155,10 +2158,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>6</v>
@@ -2173,10 +2176,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
@@ -2199,17 +2202,17 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -2223,10 +2226,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>6</v>
@@ -2241,10 +2244,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>6</v>
@@ -2259,10 +2262,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>6</v>
@@ -2277,13 +2280,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -2295,10 +2298,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>6</v>
@@ -2313,10 +2316,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>6</v>
@@ -2331,13 +2334,13 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -2349,10 +2352,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>6</v>
@@ -2367,10 +2370,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>6</v>
@@ -2385,10 +2388,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>6</v>
@@ -2403,10 +2406,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
@@ -2421,10 +2424,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
@@ -2439,10 +2442,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
